--- a/data/trans_camb/P23_DUKE_AC_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_AC_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-8,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>-12,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>-14,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>-13,37</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-4,81</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-11,83</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-5,6</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 11,57</t>
+          <t>-18,61; 25,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 4,27</t>
+          <t>-30,56; 15,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 14,09</t>
+          <t>-19,64; 24,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 16,7</t>
+          <t>-29,58; 7,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 10,15</t>
+          <t>-32,89; 5,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 8,11</t>
+          <t>-31,02; 5,65</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-18,34; 10,37</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-28,14; 2,93</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-19,09; 9,19</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-49,09%</t>
+          <t>-12,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>85,3%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>140,65%</t>
+          <t>-15,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45,91%</t>
+          <t>-18,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>-17,32%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-6,47%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-15,9%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-7,52%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-80,96; 470,25</t>
+          <t>-22,31; 45,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,59; 25,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-70,66; 1031,01</t>
+          <t>-25,4; 41,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,9; 861,34</t>
+          <t>-35,48; 10,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-43,88; 390,44</t>
+          <t>-39,86; 7,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,4; 278,55</t>
+          <t>-38,7; 7,68</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-23,2; 15,46</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-35,78; 3,95</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-23,8; 13,58</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>18,65</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22,25</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14,61</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-1,04</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,68</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,74</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,96</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-9,64</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>-8,41</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9,01</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6,9</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 16,38</t>
+          <t>-3,09; 47,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 36,84</t>
+          <t>0,49; 49,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 3,41</t>
+          <t>-9,48; 45,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 6,47</t>
+          <t>-12,55; 11,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 6,61</t>
+          <t>-24,12; 6,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 20,11</t>
+          <t>-24,66; 4,96</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 27,1</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 28,97</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-11,44; 25,3</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,0%</t>
+          <t>30,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-37,26%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-23,26%</t>
+          <t>-1,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-24,13%</t>
+          <t>-10,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>-9,52%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12,11%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9,27%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4,19%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 864,22</t>
+          <t>-5,32; 117,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 2038,14</t>
+          <t>0,5; 131,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-80,2; 55,35</t>
+          <t>-15,1; 112,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-70,01; 95,86</t>
+          <t>-13,62; 14,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-79,72; 110,81</t>
+          <t>-25,72; 7,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,58; 259,01</t>
+          <t>-26,51; 5,87</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-5,47; 45,55</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-7,24; 54,54</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-14,1; 44,31</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,38</t>
+          <t>8,83</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,54</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,69</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 17,15</t>
+          <t>-12,63; 17,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 10,72</t>
+          <t>-7,17; 20,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 6,9</t>
+          <t>-11,29; 18,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 18,12</t>
+          <t>0,44; 17,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 8,63</t>
+          <t>-9,41; 10,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 10,78</t>
+          <t>-12,79; 7,65</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 14,55</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,12; 10,75</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-8,42; 8,07</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,29%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,54%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>80,36%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,14%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,11%</t>
+          <t>-2,73%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7,9%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-0,24%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-62,88; 113,82</t>
+          <t>-14,34; 24,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,89; 70,1</t>
+          <t>-8,11; 30,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,94; 86,07</t>
+          <t>-13,2; 27,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,45; 226,72</t>
+          <t>0,9; 22,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,11; 61,97</t>
+          <t>-10,61; 13,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,34; 80,69</t>
+          <t>-14,33; 9,87</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 18,96</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-6,93; 13,86</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-10,02; 10,18</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4,42</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,92</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 16,17</t>
+          <t>-11,74; 14,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 16,55</t>
+          <t>-12,49; 14,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 10,42</t>
+          <t>-0,58; 22,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 12,03</t>
+          <t>-2,44; 14,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 10,94</t>
+          <t>-5,01; 13,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 12,13</t>
+          <t>-8,8; 8,88</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 11,98</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 9,99</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 11,7</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>73,54%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76,68%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>34,48%</t>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5,29%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 236,0</t>
+          <t>-13,4; 20,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 244,07</t>
+          <t>-14,68; 19,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 66,4</t>
+          <t>-0,16; 32,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 76,73</t>
+          <t>-2,35; 18,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 86,88</t>
+          <t>-5,33; 16,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 94,52</t>
+          <t>-9,74; 10,96</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 15,17</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-6,32; 12,47</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 14,71</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>17,16</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>18,35</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>12,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>9,97</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>13,09</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11,1</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11,41</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 11,81</t>
+          <t>1,81; 30,91</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 12,88</t>
+          <t>4,93; 32,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 10,19</t>
+          <t>-1,26; 27,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 16,33</t>
+          <t>-7,69; 21,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 7,95</t>
+          <t>-14,98; 16,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 10,67</t>
+          <t>-3,03; 25,09</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 23,11</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 21,62</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 21,15</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,97%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-4,75%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-1,58%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>12,44%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>17,38%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>14,75%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>15,15%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-45,37; 77,21</t>
+          <t>2,46; 50,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-49,3; 90,21</t>
+          <t>6,19; 55,03</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-49,65; 82,61</t>
+          <t>-1,23; 45,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 127,21</t>
+          <t>-8,94; 30,53</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 57,3</t>
+          <t>-17,3; 23,3</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-26,58; 74,78</t>
+          <t>-3,33; 36,44</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>3,38; 34,12</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 31,06</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 31,28</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>18,79</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>8,95</t>
+          <t>17,43</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-4,98</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>16,18</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>17,79</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5,07</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>11,42</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 6,62</t>
+          <t>3,86; 34,6</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 13,78</t>
+          <t>-18,45; 19,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 7,64</t>
+          <t>-15,07; 24,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 46,92</t>
+          <t>1,18; 35,45</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 4,38</t>
+          <t>-11,81; 28,12</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 30,52</t>
+          <t>-1,48; 34,75</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 30,05</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; 19,01</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 24,47</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-28,38%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-23,87%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-25,0%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>22,41%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>23,75%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>15,24%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-75,64; 75,78</t>
+          <t>4,7; 54,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-50,84; 150,93</t>
+          <t>-21,59; 29,63</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-65,95; 51,73</t>
+          <t>-17,58; 37,3</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-48,63; 335,69</t>
+          <t>1,75; 60,98</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-58,53; 29,98</t>
+          <t>-14,27; 48,15</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 224,17</t>
+          <t>-1,49; 60,13</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>7,17; 47,18</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-10,3; 28,39</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 37,08</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>6,89</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 6,97</t>
+          <t>2,08; 18,39</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 8,75</t>
+          <t>-0,82; 15,13</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 3,27</t>
+          <t>0,48; 16,68</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,6; 13,63</t>
+          <t>-0,42; 10,6</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,57</t>
+          <t>-7,44; 4,03</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 8,23</t>
+          <t>-5,99; 5,19</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 11,54</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 7,52</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 8,44</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-5,1%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>-0,73%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>8,78%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>4,33%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-30,88; 55,33</t>
+          <t>2,68; 26,81</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 69,47</t>
+          <t>-0,94; 22,93</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 25,31</t>
+          <t>0,57; 24,62</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2,08; 94,25</t>
+          <t>-0,44; 13,3</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 26,81</t>
+          <t>-8,68; 4,96</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 58,95</t>
+          <t>-7,08; 6,61</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 15,3</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 10,06</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 11,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
